--- a/datos_salida/Distribución_Combustibles_Unidades.xlsx
+++ b/datos_salida/Distribución_Combustibles_Unidades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piero\Downloads\Optimizacion_Programacion\datos_salida\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01877F87-6346-4CAB-A78C-BAE889F8F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A45A56-1098-434B-B1CD-9825C1876EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turno 1" sheetId="1" r:id="rId1"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16128,8 +16128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/datos_salida/Distribución_Combustibles_Unidades.xlsx
+++ b/datos_salida/Distribución_Combustibles_Unidades.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -769,7 +769,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -814,7 +814,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -904,7 +904,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -949,7 +949,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -994,7 +994,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -9210,7 +9210,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -13125,7 +13125,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -13215,7 +13215,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -13350,7 +13350,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -13440,7 +13440,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -13620,7 +13620,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -14006,7 +14006,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -14276,7 +14276,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -15671,7 +15671,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -15761,7 +15761,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -15941,7 +15941,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -19811,7 +19811,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -19856,7 +19856,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -19901,7 +19901,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -19946,7 +19946,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -20036,7 +20036,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -20081,7 +20081,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -20126,7 +20126,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -20171,7 +20171,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -20692,7 +20692,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -20827,7 +20827,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -20917,7 +20917,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -22357,7 +22357,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -22402,7 +22402,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -22447,7 +22447,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -22582,7 +22582,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -26452,7 +26452,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -26497,7 +26497,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -26542,7 +26542,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -26587,7 +26587,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -26632,7 +26632,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -26677,7 +26677,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -26722,7 +26722,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -26767,7 +26767,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -26812,7 +26812,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -26857,7 +26857,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -26902,7 +26902,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -26947,7 +26947,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D147" t="n">

--- a/datos_salida/Distribución_Combustibles_Unidades.xlsx
+++ b/datos_salida/Distribución_Combustibles_Unidades.xlsx
@@ -7,10 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Turno 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Turno 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Turno 3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Turno 4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Vuelta 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Vuelta 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Vuelta 3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20343,6645 +20342,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K147"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Placa de tracto</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Capacidad total</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total de compartimentos</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Número de compartimento</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capacidad de compartimento</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Producto</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cantidad llenada</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ACG-766</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ACG-766</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ACG-766</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ACG-766</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ACG-766</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1400</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2500</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>500</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>500</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4000</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>BED-794</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>9000</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>AXY-949</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>AXY-949</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>AXY-949</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E34" t="n">
-        <v>6</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E37" t="n">
-        <v>8</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E38" t="n">
-        <v>8</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>500</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E39" t="n">
-        <v>8</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E40" t="n">
-        <v>8</v>
-      </c>
-      <c r="F40" t="n">
-        <v>5</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E41" t="n">
-        <v>8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E42" t="n">
-        <v>8</v>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
-      </c>
-      <c r="G42" t="n">
-        <v>500</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E43" t="n">
-        <v>8</v>
-      </c>
-      <c r="F43" t="n">
-        <v>8</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E44" t="n">
-        <v>7</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2500</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" t="n">
-        <v>500</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E47" t="n">
-        <v>7</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>500</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E49" t="n">
-        <v>7</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E50" t="n">
-        <v>7</v>
-      </c>
-      <c r="F50" t="n">
-        <v>7</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E51" t="n">
-        <v>8</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E52" t="n">
-        <v>8</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E53" t="n">
-        <v>8</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E54" t="n">
-        <v>8</v>
-      </c>
-      <c r="F54" t="n">
-        <v>4</v>
-      </c>
-      <c r="G54" t="n">
-        <v>500</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E55" t="n">
-        <v>8</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5</v>
-      </c>
-      <c r="G55" t="n">
-        <v>500</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E56" t="n">
-        <v>8</v>
-      </c>
-      <c r="F56" t="n">
-        <v>6</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E57" t="n">
-        <v>8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>7</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E58" t="n">
-        <v>8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>8</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ADY-911</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E59" t="n">
-        <v>6</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ADY-911</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E60" t="n">
-        <v>6</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ADY-911</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E61" t="n">
-        <v>6</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ADY-911</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ADY-911</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E63" t="n">
-        <v>6</v>
-      </c>
-      <c r="F63" t="n">
-        <v>5</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ADY-911</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E64" t="n">
-        <v>6</v>
-      </c>
-      <c r="F64" t="n">
-        <v>6</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E65" t="n">
-        <v>6</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E67" t="n">
-        <v>6</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E68" t="n">
-        <v>6</v>
-      </c>
-      <c r="F68" t="n">
-        <v>4</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E69" t="n">
-        <v>6</v>
-      </c>
-      <c r="F69" t="n">
-        <v>5</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E70" t="n">
-        <v>6</v>
-      </c>
-      <c r="F70" t="n">
-        <v>6</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>AYR-9452</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" t="n">
-        <v>9000</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E72" t="n">
-        <v>8</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E73" t="n">
-        <v>8</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E74" t="n">
-        <v>8</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E75" t="n">
-        <v>8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>4</v>
-      </c>
-      <c r="G75" t="n">
-        <v>500</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E76" t="n">
-        <v>8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>5</v>
-      </c>
-      <c r="G76" t="n">
-        <v>500</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E77" t="n">
-        <v>8</v>
-      </c>
-      <c r="F77" t="n">
-        <v>6</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8</v>
-      </c>
-      <c r="F79" t="n">
-        <v>8</v>
-      </c>
-      <c r="G79" t="n">
-        <v>100</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K79" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K80" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K81" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E82" t="n">
-        <v>8</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E83" t="n">
-        <v>8</v>
-      </c>
-      <c r="F83" t="n">
-        <v>4</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K83" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E84" t="n">
-        <v>8</v>
-      </c>
-      <c r="F84" t="n">
-        <v>5</v>
-      </c>
-      <c r="G84" t="n">
-        <v>500</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K84" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E85" t="n">
-        <v>8</v>
-      </c>
-      <c r="F85" t="n">
-        <v>6</v>
-      </c>
-      <c r="G85" t="n">
-        <v>500</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K85" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8</v>
-      </c>
-      <c r="F86" t="n">
-        <v>7</v>
-      </c>
-      <c r="G86" t="n">
-        <v>500</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K86" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E87" t="n">
-        <v>8</v>
-      </c>
-      <c r="F87" t="n">
-        <v>8</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>40002023</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>ENDURA DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K87" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E88" t="n">
-        <v>8</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>40002023</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>ENDURA DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K88" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E89" t="n">
-        <v>8</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2</v>
-      </c>
-      <c r="G89" t="n">
-        <v>500</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>40002049</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>EXELON NITRO GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K89" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E90" t="n">
-        <v>8</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3</v>
-      </c>
-      <c r="G90" t="n">
-        <v>500</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>40002049</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>EXELON NITRO GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K90" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E91" t="n">
-        <v>8</v>
-      </c>
-      <c r="F91" t="n">
-        <v>4</v>
-      </c>
-      <c r="G91" t="n">
-        <v>500</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>40002057</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>EXELON NITRO GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K91" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E92" t="n">
-        <v>8</v>
-      </c>
-      <c r="F92" t="n">
-        <v>5</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K92" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E93" t="n">
-        <v>8</v>
-      </c>
-      <c r="F93" t="n">
-        <v>6</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K93" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E94" t="n">
-        <v>8</v>
-      </c>
-      <c r="F94" t="n">
-        <v>7</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K94" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E95" t="n">
-        <v>8</v>
-      </c>
-      <c r="F95" t="n">
-        <v>8</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K95" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E96" t="n">
-        <v>7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K96" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E97" t="n">
-        <v>7</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K97" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G98" t="n">
-        <v>500</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>40002049</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>EXELON NITRO GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K98" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E99" t="n">
-        <v>7</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4</v>
-      </c>
-      <c r="G99" t="n">
-        <v>500</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>40002049</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>EXELON NITRO GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K99" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E100" t="n">
-        <v>7</v>
-      </c>
-      <c r="F100" t="n">
-        <v>5</v>
-      </c>
-      <c r="G100" t="n">
-        <v>500</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>40002049</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>EXELON NITRO GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K100" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E101" t="n">
-        <v>7</v>
-      </c>
-      <c r="F101" t="n">
-        <v>6</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>40002049</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>EXELON NITRO GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K101" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E102" t="n">
-        <v>7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>7</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K102" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E103" t="n">
-        <v>8</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K103" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E104" t="n">
-        <v>8</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2</v>
-      </c>
-      <c r="G104" t="n">
-        <v>500</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K104" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E105" t="n">
-        <v>8</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K105" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E106" t="n">
-        <v>8</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4</v>
-      </c>
-      <c r="G106" t="n">
-        <v>500</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K106" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E107" t="n">
-        <v>8</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K107" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E108" t="n">
-        <v>8</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6</v>
-      </c>
-      <c r="G108" t="n">
-        <v>500</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K108" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E109" t="n">
-        <v>8</v>
-      </c>
-      <c r="F109" t="n">
-        <v>7</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K109" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E110" t="n">
-        <v>8</v>
-      </c>
-      <c r="F110" t="n">
-        <v>8</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K110" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ANC-872</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>6500</v>
-      </c>
-      <c r="E111" t="n">
-        <v>4</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" t="n">
-        <v>2500</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K111" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>ANC-872</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>6500</v>
-      </c>
-      <c r="E112" t="n">
-        <v>4</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K112" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ANC-872</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>6500</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K113" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ANC-872</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>6500</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K114" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E115" t="n">
-        <v>7</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K115" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E116" t="n">
-        <v>7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K116" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E117" t="n">
-        <v>7</v>
-      </c>
-      <c r="F117" t="n">
-        <v>3</v>
-      </c>
-      <c r="G117" t="n">
-        <v>500</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K117" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E118" t="n">
-        <v>7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4</v>
-      </c>
-      <c r="G118" t="n">
-        <v>500</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K118" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E119" t="n">
-        <v>7</v>
-      </c>
-      <c r="F119" t="n">
-        <v>5</v>
-      </c>
-      <c r="G119" t="n">
-        <v>500</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K119" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E120" t="n">
-        <v>7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>6</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K120" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E121" t="n">
-        <v>7</v>
-      </c>
-      <c r="F121" t="n">
-        <v>7</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K121" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>AHJ-851</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E122" t="n">
-        <v>6</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K122" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>AHJ-851</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E123" t="n">
-        <v>6</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K123" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>AHJ-851</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E124" t="n">
-        <v>6</v>
-      </c>
-      <c r="F124" t="n">
-        <v>3</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K124" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>AHJ-851</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E125" t="n">
-        <v>6</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K125" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>AHJ-851</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E126" t="n">
-        <v>6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>5</v>
-      </c>
-      <c r="G126" t="n">
-        <v>500</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K126" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>AHJ-851</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E127" t="n">
-        <v>6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>6</v>
-      </c>
-      <c r="G127" t="n">
-        <v>500</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K127" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E128" t="n">
-        <v>7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K128" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E129" t="n">
-        <v>7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K129" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E130" t="n">
-        <v>7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>3</v>
-      </c>
-      <c r="G130" t="n">
-        <v>500</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K130" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E131" t="n">
-        <v>7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>4</v>
-      </c>
-      <c r="G131" t="n">
-        <v>500</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K131" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E132" t="n">
-        <v>7</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5</v>
-      </c>
-      <c r="G132" t="n">
-        <v>500</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K132" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E133" t="n">
-        <v>7</v>
-      </c>
-      <c r="F133" t="n">
-        <v>6</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K133" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E134" t="n">
-        <v>7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>7</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="K134" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E135" t="n">
-        <v>6</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" t="n">
-        <v>500</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K135" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E136" t="n">
-        <v>6</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K136" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E137" t="n">
-        <v>6</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K137" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E138" t="n">
-        <v>6</v>
-      </c>
-      <c r="F138" t="n">
-        <v>4</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K138" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E139" t="n">
-        <v>6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5</v>
-      </c>
-      <c r="G139" t="n">
-        <v>500</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="K139" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E140" t="n">
-        <v>6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>6</v>
-      </c>
-      <c r="G140" t="n">
-        <v>500</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K140" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E141" t="n">
-        <v>7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K141" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E142" t="n">
-        <v>7</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2</v>
-      </c>
-      <c r="G142" t="n">
-        <v>500</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K142" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E143" t="n">
-        <v>7</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3</v>
-      </c>
-      <c r="G143" t="n">
-        <v>500</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="K143" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E144" t="n">
-        <v>7</v>
-      </c>
-      <c r="F144" t="n">
-        <v>4</v>
-      </c>
-      <c r="G144" t="n">
-        <v>500</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="K144" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E145" t="n">
-        <v>7</v>
-      </c>
-      <c r="F145" t="n">
-        <v>5</v>
-      </c>
-      <c r="G145" t="n">
-        <v>500</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E146" t="n">
-        <v>7</v>
-      </c>
-      <c r="F146" t="n">
-        <v>6</v>
-      </c>
-      <c r="G146" t="n">
-        <v>500</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E147" t="n">
-        <v>7</v>
-      </c>
-      <c r="F147" t="n">
-        <v>7</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/datos_salida/Distribución_Combustibles_Unidades.xlsx
+++ b/datos_salida/Distribución_Combustibles_Unidades.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Vuelta 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Vuelta 2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Vuelta 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Vuelta 4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,12 +555,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002041</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>EXELON GASOHOL 90</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -596,12 +597,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002049</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>EXELON NITRO GASOHOL 95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -638,21 +639,21 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="6">
@@ -680,17 +681,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -722,21 +723,21 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>40002023</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ENDURA DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8">
@@ -764,21 +765,21 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40002041</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EXELON GASOHOL 90</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9">
@@ -820,7 +821,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10">
@@ -974,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002049</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON NITRO GASOHOL 95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1016,21 +1017,21 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002041</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON GASOHOL 90</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -1058,17 +1059,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1142,17 +1143,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1184,17 +1185,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1226,17 +1227,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1268,17 +1269,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1310,12 +1311,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002022</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1352,12 +1353,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002022</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1394,12 +1395,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002022</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1436,12 +1437,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002022</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1478,12 +1479,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002022</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1520,12 +1521,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002022</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1562,12 +1563,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002022</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1604,12 +1605,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002022</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1646,12 +1647,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002022</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1688,12 +1689,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002022</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1702,7 +1703,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31">
@@ -1730,17 +1731,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -1772,17 +1773,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -1814,17 +1815,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1856,17 +1857,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1982,17 +1983,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2024,17 +2025,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2066,17 +2067,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2234,17 +2235,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2276,17 +2277,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2318,17 +2319,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2360,17 +2361,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2402,17 +2403,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2444,17 +2445,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2612,17 +2613,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -2654,17 +2655,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -2780,17 +2781,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -2822,17 +2823,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -2864,17 +2865,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -2906,17 +2907,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -2948,17 +2949,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -2990,17 +2991,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3032,17 +3033,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3074,17 +3075,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3158,17 +3159,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3200,17 +3201,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3326,17 +3327,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -3368,17 +3369,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -3410,17 +3411,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3452,17 +3453,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3494,17 +3495,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -3536,17 +3537,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -3578,17 +3579,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -3704,17 +3705,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -3746,17 +3747,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -3788,21 +3789,21 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81">
@@ -3830,17 +3831,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -3872,21 +3873,21 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83">
@@ -3914,17 +3915,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -3956,21 +3957,903 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
+          <t>40002021</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>MAX-P DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>500</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>40002021</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>MAX-P DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>500</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>40002021</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>MAX-P DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>40002021</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>MAX-P DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>40002021</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>MAX-P DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>40002021</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>MAX-P DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>500</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>40002021</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>MAX-P DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>40002021</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>MAX-P DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>40002039</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>G90</t>
         </is>
       </c>
-      <c r="J84" t="n">
+      <c r="J93" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>500</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>500</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>500</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B6J-896</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B6J-896</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>500</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B6J-896</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
         <v>250</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B6J-896</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>500</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>D5Q-922</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>500</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>D5Q-922</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>D5Q-922</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>500</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>D5Q-922</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>500</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3979,6 +4862,4445 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Placa de tracto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacidad total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total de compartimentos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Número de compartimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Capacidad de compartimento</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Producto</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad llenada</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AYR-771</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>40002041</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>EXELON GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AYR-771</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>40002049</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>EXELON NITRO GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AYR-771</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>40002057</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EXELON NITRO GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BED-794</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AXY-949</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AXY-949</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AXY-949</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>40002023</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ENDURA DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>40002023</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ENDURA DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>40002023</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ENDURA DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>40002023</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ENDURA DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>40002023</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ENDURA DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>500</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>500</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>500</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>500</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>500</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>500</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>500</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>500</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ANC-872</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ANC-872</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ANC-872</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ANC-872</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>500</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>500</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>500</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BCQ-737</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>500</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BCQ-737</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BCQ-737</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BCQ-737</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BCQ-737</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>500</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BCQ-737</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>500</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BJV-928</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BJV-928</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>500</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BJV-928</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>500</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BJV-928</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>500</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BJV-928</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>500</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BJV-928</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>500</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BJV-928</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>AJF-705</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>500</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>AJF-705</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>AJF-705</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>AJF-705</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>AJF-705</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>500</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>AUG-895</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>500</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>AUG-895</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>AUG-895</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>AUG-895</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>AHP-831</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>AHP-831</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>AHP-831</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>V5I-821</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>500</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>V5I-821</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>V5I-821</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>V5I-821</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>V5I-821</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>500</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>D1J-885</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>500</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>D1J-885</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" t="n">
+        <v>500</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>D1J-885</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>D1J-885</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>500</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>D1J-885</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>500</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>500</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>500</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>500</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>500</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>500</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B6J-896</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B6J-896</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>500</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B6J-896</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B6J-896</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>500</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>D5Q-922</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>500</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>D5Q-922</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>D5Q-922</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>500</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>D5Q-922</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>500</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4153,17 +9475,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -4195,17 +9517,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -4237,17 +9559,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -4279,17 +9601,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -4405,17 +9727,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -4447,17 +9769,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -4573,17 +9895,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -4615,17 +9937,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -4699,17 +10021,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PLUS DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -4741,12 +10063,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PLUS DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4783,12 +10105,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PLUS DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4825,12 +10147,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PLUS DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4867,17 +10189,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PLUS DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -4909,17 +10231,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -4951,17 +10273,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -5035,17 +10357,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -5077,17 +10399,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -5119,17 +10441,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -5161,17 +10483,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -5203,17 +10525,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -5245,17 +10567,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -5287,17 +10609,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -5329,17 +10651,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -5371,17 +10693,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -5413,17 +10735,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -5455,17 +10777,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -5497,17 +10819,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -5539,17 +10861,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -5623,17 +10945,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -5665,17 +10987,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -5749,21 +11071,21 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002038</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>GASOHOL 90</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43">
@@ -5791,21 +11113,21 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002025</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44">
@@ -5875,17 +11197,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -5959,17 +11281,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002041</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>EXELON GASOHOL 90</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -6001,17 +11323,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002041</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON GASOHOL 90</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -6043,17 +11365,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002041</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON GASOHOL 90</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -6085,17 +11407,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002049</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON NITRO GASOHOL 95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -6127,17 +11449,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002049</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON NITRO GASOHOL 95</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -6169,17 +11491,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002049</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON NITRO GASOHOL 95</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -6379,17 +11701,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -6421,17 +11743,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -6463,17 +11785,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -6505,17 +11827,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -6547,17 +11869,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -6589,17 +11911,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -6631,17 +11953,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -6673,17 +11995,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -6715,17 +12037,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -6757,12 +12079,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6799,12 +12121,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6841,12 +12163,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6883,12 +12205,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6925,17 +12247,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -6967,17 +12289,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002041</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON GASOHOL 90</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -7009,21 +12331,21 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002049</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON NITRO GASOHOL 95</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73">
@@ -7051,21 +12373,21 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002057</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON NITRO GASOHOL 97</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74">
@@ -7093,17 +12415,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -7135,17 +12457,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -7177,17 +12499,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -7219,12 +12541,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7261,12 +12583,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7303,12 +12625,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7345,21 +12667,21 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81">
@@ -7429,17 +12751,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -7471,17 +12793,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -7555,17 +12877,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -7597,17 +12919,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -7639,17 +12961,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -7681,17 +13003,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -7723,21 +13045,21 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90">
@@ -7765,17 +13087,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -7807,21 +13129,21 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92">
@@ -7849,17 +13171,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -7891,17 +13213,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -7933,21 +13255,21 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="95">
@@ -7975,17 +13297,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -8017,17 +13339,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -8059,21 +13381,21 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8081,13 +13403,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8172,17 +13494,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -8298,21 +13620,21 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
@@ -8340,17 +13662,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -8424,17 +13746,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -8466,21 +13788,21 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -8508,21 +13830,21 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40002023</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ENDURA DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -8550,21 +13872,21 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40002023</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ENDURA DIESEL B5 S50 UV</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -8592,21 +13914,21 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40002041</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>EXELON GASOHOL 90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8634,21 +13956,21 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40002049</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>EXELON NITRO GASOHOL 95</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -8676,692 +13998,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>500</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>500</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D21" t="n">
-        <v>8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8</v>
-      </c>
-      <c r="E22" t="n">
-        <v>8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D23" t="n">
-        <v>8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D24" t="n">
-        <v>8</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D25" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>500</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D28" t="n">
-        <v>8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6</v>
-      </c>
-      <c r="F28" t="n">
-        <v>500</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D29" t="n">
-        <v>8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>500</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/datos_salida/Distribución_Combustibles_Unidades.xlsx
+++ b/datos_salida/Distribución_Combustibles_Unidades.xlsx
@@ -3284,21 +3284,21 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3326,21 +3326,21 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4754,21 +4754,21 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104">

--- a/datos_salida/Distribución_Combustibles_Unidades.xlsx
+++ b/datos_salida/Distribución_Combustibles_Unidades.xlsx
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -1016,21 +1016,21 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3158,17 +3158,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3200,17 +3200,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3242,17 +3242,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3284,21 +3284,21 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69">
@@ -3326,21 +3326,21 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70">
@@ -4250,17 +4250,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -4292,17 +4292,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -4376,17 +4376,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -4418,17 +4418,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -4460,21 +4460,21 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="109">
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111">
@@ -5174,17 +5174,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -5258,21 +5258,21 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116">
@@ -5300,17 +5300,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -5342,21 +5342,21 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5370,7 +5370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7219,21 +7219,21 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45">
@@ -7261,21 +7261,21 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46">
@@ -8773,17 +8773,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002049</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON NITRO GASOHOL 95</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -8815,17 +8815,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002041</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>EXELON GASOHOL 90</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -8857,12 +8857,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84">
@@ -8899,17 +8899,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -8941,17 +8941,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -8983,17 +8983,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -9025,17 +9025,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -9067,21 +9067,21 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002023</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>ENDURA DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89">
@@ -9109,17 +9109,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>40002049</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>EXELON NITRO GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -9151,17 +9151,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>40002041</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>EXELON GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -9193,12 +9193,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>40002041</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>EXELON GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -9235,17 +9235,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>40002023</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>ENDURA DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -9277,17 +9277,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>40002023</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>ENDURA DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -9319,17 +9319,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>40002023</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>ENDURA DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -9361,21 +9361,21 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>40002023</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>ENDURA DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96">
@@ -9403,21 +9403,21 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>40002023</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>ENDURA DIESEL B5 S50 UV</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97">
@@ -9459,7 +9459,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="98">
@@ -9571,21 +9571,21 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101">
@@ -9885,43 +9885,43 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>9000</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>40002017</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>PLUS DIESEL B5 S50</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>4000</v>
+        <v>-6000</v>
       </c>
     </row>
     <row r="109">
@@ -9942,7 +9942,7 @@
         <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
         <v>3000</v>
@@ -9984,7 +9984,7 @@
         <v>3</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
         <v>3000</v>
@@ -10011,25 +10011,25 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>9000</v>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="112">
@@ -10068,10 +10068,10 @@
         <v>6</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -10110,10 +10110,10 @@
         <v>6</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="114">
@@ -10152,7 +10152,7 @@
         <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F114" t="n">
         <v>1000</v>
@@ -10194,10 +10194,10 @@
         <v>6</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F115" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="116">
@@ -10236,10 +10236,10 @@
         <v>6</v>
       </c>
       <c r="E116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F116" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -10257,49 +10257,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="n">
-        <v>6</v>
-      </c>
-      <c r="F117" t="n">
         <v>2000</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="J117" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -10313,7 +10271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10376,19 +10334,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -10398,39 +10356,39 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -10440,39 +10398,39 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -10482,39 +10440,39 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -10524,21 +10482,21 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -10559,7 +10517,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>500</v>
@@ -10586,25 +10544,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4000</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -10622,28 +10580,28 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4000</v>
       </c>
       <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
         <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>1000</v>
@@ -10670,22 +10628,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4000</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>1000</v>
@@ -10712,12 +10670,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -10727,7 +10685,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>500</v>
@@ -10754,25 +10712,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>4000</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -10790,28 +10748,28 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>4000</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>1000</v>
@@ -10838,22 +10796,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>4000</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>1000</v>
@@ -10880,25 +10838,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>4000</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -10916,109 +10874,109 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>4000</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PLUS DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>4000</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PLUS DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>4000</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -11028,32 +10986,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PLUS DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -11063,39 +11021,39 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PLUS DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -11105,10 +11063,10 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -11126,18 +11084,18 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -11147,7 +11105,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>1000</v>
@@ -11174,12 +11132,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -11189,10 +11147,10 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -11210,18 +11168,18 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -11231,7 +11189,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>500</v>
@@ -11258,12 +11216,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -11273,7 +11231,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>500</v>
@@ -11300,12 +11258,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -11315,10 +11273,10 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -11336,31 +11294,31 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -11378,31 +11336,31 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -11420,31 +11378,31 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -11462,28 +11420,28 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>AXK-781</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1000</v>
@@ -11510,22 +11468,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>AXK-781</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>500</v>
@@ -11552,22 +11510,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>AXK-781</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>500</v>
@@ -11594,25 +11552,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>AXK-781</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -11630,31 +11588,31 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>AXK-781</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -11672,13 +11630,13 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -11690,10 +11648,10 @@
         <v>4500</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>500</v>
@@ -11720,7 +11678,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -11732,13 +11690,13 @@
         <v>4500</v>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -11756,13 +11714,13 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -11774,13 +11732,13 @@
         <v>4500</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -11798,13 +11756,13 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -11816,13 +11774,13 @@
         <v>4500</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -11840,13 +11798,13 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -11858,13 +11816,13 @@
         <v>4500</v>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -11882,31 +11840,31 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -11924,28 +11882,28 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D39" t="n">
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>1000</v>
@@ -11972,22 +11930,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D40" t="n">
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>500</v>
@@ -12014,22 +11972,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D41" t="n">
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>500</v>
@@ -12056,22 +12014,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D42" t="n">
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>500</v>
@@ -12098,25 +12056,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D43" t="n">
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -12134,31 +12092,31 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D44" t="n">
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -12176,31 +12134,31 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -12218,31 +12176,31 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -12260,28 +12218,28 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>1000</v>
@@ -12308,25 +12266,25 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -12344,28 +12302,28 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>500</v>
@@ -12392,22 +12350,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>500</v>
@@ -12434,25 +12392,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -12470,28 +12428,28 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>1000</v>
@@ -12518,7 +12476,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AYR-771</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -12527,16 +12485,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -12554,13 +12512,13 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AYR-771</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -12569,16 +12527,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -12596,13 +12554,13 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AYR-771</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -12611,34 +12569,370 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
         <v>3</v>
       </c>
       <c r="F55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D57" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>500</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>500</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>500</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AYR-771</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AYR-771</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>AYR-771</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
         <v>2000</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>1000</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/datos_salida/Distribución_Combustibles_Unidades.xlsx
+++ b/datos_salida/Distribución_Combustibles_Unidades.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5357,6 +5357,1224 @@
       </c>
       <c r="J117" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D118" t="n">
+        <v>8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D119" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D120" t="n">
+        <v>8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>500</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>500</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>500</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>500</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>F3Y-722</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D133" t="n">
+        <v>8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>F3Y-722</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>40002039</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>F3Y-722</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>F3Y-722</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D136" t="n">
+        <v>8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>500</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>F3Y-722</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>500</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>F3Y-722</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>40002041</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>EXELON GASOHOL 90</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>G90</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>F3Y-722</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>40002049</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>EXELON NITRO GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>F3Y-722</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>40002057</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>EXELON NITRO GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ADY-911</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ADY-911</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ADY-911</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ADY-911</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ADY-911</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ADY-911</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -5370,7 +6588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5623,21 +6841,21 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>40002041</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EXELON GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
@@ -5665,17 +6883,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>40002049</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EXELON NITRO GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -5707,17 +6925,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40002049</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EXELON NITRO GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -5749,17 +6967,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40002057</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EXELON NITRO GASOHOL 97</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -6715,12 +7933,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6757,17 +7975,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-P DIESEL B5 S50</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -6799,12 +8017,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002038</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>GASOHOL 90</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6841,17 +8059,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002025</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PLUS DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -6883,21 +8101,21 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>40002014</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>MAX-P DIESEL B5 S50</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7135,17 +8353,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>40002038</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -7177,17 +8395,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>40002025</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>PLUS DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -7219,21 +8437,21 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7261,21 +8479,21 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -8185,17 +9403,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -8283,7 +9501,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70">
@@ -8605,21 +9823,21 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="78">
@@ -8647,21 +9865,21 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="79">
@@ -8689,17 +9907,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -8731,17 +9949,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -9193,17 +10411,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -9291,7 +10509,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94">
@@ -9319,17 +10537,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -9361,21 +10579,21 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="96">
@@ -9403,21 +10621,21 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97">
@@ -9459,7 +10677,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98">
@@ -9529,21 +10747,21 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100">
@@ -9571,17 +10789,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -9613,21 +10831,21 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002055</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>G-PRIX GASOHOL 97</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>G97</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102">
@@ -9823,17 +11041,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -9865,17 +11083,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -9963,7 +11181,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="110">
@@ -10033,21 +11251,21 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -10258,6 +11476,636 @@
       </c>
       <c r="J116" t="n">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D117" t="n">
+        <v>8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D118" t="n">
+        <v>8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>40002019</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>MAX-D DIESEL B5 S50 UV</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D119" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>500</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>40002047</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>PRIMAX GASOHOL 95</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>G95</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D120" t="n">
+        <v>8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>500</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>40002055</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>G-PRIX GASOHOL 97</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>G97</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>40002017</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>PLUS DIESEL B5 S50</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>500</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>40002017</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>PLUS DIESEL B5 S50</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>500</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>40002017</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>PLUS DIESEL B5 S50</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>40002017</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>PLUS DIESEL B5 S50</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10271,7 +12119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10334,19 +12182,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AUG-888</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -10356,39 +12204,39 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AUG-888</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -10398,39 +12246,39 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AUG-888</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -10440,39 +12288,39 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AUG-888</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -10482,21 +12330,21 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10517,7 +12365,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>500</v>
@@ -10544,12 +12392,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -10559,10 +12407,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -10580,18 +12428,18 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -10601,10 +12449,10 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -10622,18 +12470,18 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -10643,7 +12491,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>1000</v>
@@ -10670,12 +12518,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -10685,7 +12533,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>500</v>
@@ -10712,123 +12560,123 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>4000</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>1000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -10838,229 +12686,229 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40002055</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>G-PRIX GASOHOL 97</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>G97</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40002017</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>PLUS DIESEL B5 S50</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>40002017</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>PLUS DIESEL B5 S50</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1000</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>40002017</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>PLUS DIESEL B5 S50</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1000</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40002017</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>PLUS DIESEL B5 S50</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -11070,123 +12918,123 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1000</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1000</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -11196,143 +13044,143 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -11342,39 +13190,39 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -11384,25 +13232,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -11420,28 +13268,28 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>1000</v>
@@ -11468,22 +13316,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="D29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
         <v>5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>500</v>
@@ -11510,22 +13358,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>500</v>
@@ -11552,22 +13400,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>500</v>
@@ -11594,25 +13442,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -11630,1309 +13478,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>500</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D34" t="n">
-        <v>6</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6</v>
-      </c>
-      <c r="E37" t="n">
-        <v>5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>500</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D38" t="n">
-        <v>6</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6</v>
-      </c>
-      <c r="F38" t="n">
-        <v>500</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D39" t="n">
-        <v>7</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D40" t="n">
-        <v>7</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" t="n">
-        <v>500</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D41" t="n">
-        <v>7</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>500</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>40002055</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>G-PRIX GASOHOL 97</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>G97</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D42" t="n">
-        <v>7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>500</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D43" t="n">
-        <v>7</v>
-      </c>
-      <c r="E43" t="n">
-        <v>5</v>
-      </c>
-      <c r="F43" t="n">
-        <v>500</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D44" t="n">
-        <v>7</v>
-      </c>
-      <c r="E44" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" t="n">
-        <v>500</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D45" t="n">
-        <v>7</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D46" t="n">
-        <v>7</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D47" t="n">
-        <v>7</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D48" t="n">
-        <v>7</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>500</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D49" t="n">
-        <v>7</v>
-      </c>
-      <c r="E49" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>500</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D50" t="n">
-        <v>7</v>
-      </c>
-      <c r="E50" t="n">
-        <v>5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>500</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D51" t="n">
-        <v>7</v>
-      </c>
-      <c r="E51" t="n">
-        <v>6</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D52" t="n">
-        <v>7</v>
-      </c>
-      <c r="E52" t="n">
-        <v>7</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D53" t="n">
-        <v>8</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D54" t="n">
-        <v>8</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D55" t="n">
-        <v>8</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D56" t="n">
-        <v>8</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Ninguno</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D57" t="n">
-        <v>8</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5</v>
-      </c>
-      <c r="F57" t="n">
-        <v>500</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D58" t="n">
-        <v>8</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>500</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D59" t="n">
-        <v>8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>7</v>
-      </c>
-      <c r="F59" t="n">
-        <v>500</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D60" t="n">
-        <v>8</v>
-      </c>
-      <c r="E60" t="n">
-        <v>8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D62" t="n">
-        <v>3</v>
-      </c>
-      <c r="E62" t="n">
-        <v>2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>40002047</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 95</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>G95</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>40002039</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PRIMAX GASOHOL 90</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>G90</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
